--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Select Order" sheetId="13" r:id="rId13"/>
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
+    <sheet name="Preview Order" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -633,6 +634,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="15"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Preview Order" sheetId="16" r:id="rId16"/>
+    <sheet name="test1" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -653,6 +654,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Preview Order" sheetId="16" r:id="rId16"/>
     <sheet name="test1" sheetId="17" r:id="rId17"/>
+    <sheet name="test" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -663,31 +664,50 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Preview Order" sheetId="16" r:id="rId16"/>
     <sheet name="test1" sheetId="17" r:id="rId17"/>
-    <sheet name="test" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -674,25 +673,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -702,7 +682,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Preview Order" sheetId="16" r:id="rId16"/>
     <sheet name="test1" sheetId="17" r:id="rId17"/>
+    <sheet name="test2" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -673,6 +674,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -682,7 +702,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Preview Order" sheetId="16" r:id="rId16"/>
     <sheet name="test1" sheetId="17" r:id="rId17"/>
     <sheet name="test2" sheetId="18" r:id="rId18"/>
+    <sheet name="test3" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -693,6 +694,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="18"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <sheet name="Preview Order" sheetId="16" r:id="rId16"/>
     <sheet name="test1" sheetId="17" r:id="rId17"/>
     <sheet name="test2" sheetId="18" r:id="rId18"/>
-    <sheet name="test3" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -694,7 +693,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -709,25 +708,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Preview Order" sheetId="16" r:id="rId16"/>
     <sheet name="test1" sheetId="17" r:id="rId17"/>
-    <sheet name="test2" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -674,25 +673,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -702,7 +682,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1"/>
+    <row ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Preview Order" sheetId="16" r:id="rId16"/>
-    <sheet name="test1" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -654,25 +653,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="15"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
     <sheet name="Close App" sheetId="15" r:id="rId15"/>
     <sheet name="Preview Order" sheetId="16" r:id="rId16"/>
+    <sheet name="test1" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -653,6 +654,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -662,7 +682,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row ht="14.95" customFormat="1"/>
+    <row customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="Order By Ad" sheetId="9" r:id="rId9"/>
     <sheet name="New Search" sheetId="10" r:id="rId10"/>
     <sheet name="Search Order By Name" sheetId="11" r:id="rId11"/>
-    <sheet name="Search Order By Number" sheetId="12" r:id="rId12"/>
-    <sheet name="Select Order" sheetId="13" r:id="rId13"/>
-    <sheet name="Search Order Tab" sheetId="14" r:id="rId14"/>
-    <sheet name="Close App" sheetId="15" r:id="rId15"/>
+    <sheet name="Select Order" sheetId="12" r:id="rId12"/>
+    <sheet name="Search Order Tab" sheetId="13" r:id="rId13"/>
+    <sheet name="Close App" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -614,25 +613,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Select Order" sheetId="12" r:id="rId12"/>
     <sheet name="Search Order Tab" sheetId="13" r:id="rId13"/>
     <sheet name="Close App" sheetId="14" r:id="rId14"/>
+    <sheet name="Action17" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -613,6 +614,25 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.95" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -622,7 +642,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row r="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/for-tests/FlightGUIBU/Default.xlsx
+++ b/for-tests/FlightGUIBU/Default.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="SpreadsheetGear 8.2.5.102"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="14"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Select Order" sheetId="12" r:id="rId12"/>
     <sheet name="Search Order Tab" sheetId="13" r:id="rId13"/>
     <sheet name="Close App" sheetId="14" r:id="rId14"/>
-    <sheet name="Action17" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="40001"/>
 </workbook>
@@ -614,25 +613,6 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -642,7 +622,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
